--- a/201708044206张成文/学习日志.xlsx
+++ b/201708044206张成文/学习日志.xlsx
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -409,6 +409,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43560</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044206张成文/学习日志.xlsx
+++ b/201708044206张成文/学习日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +38,10 @@
   </si>
   <si>
     <t>继续学习JDBC/ 第五 Spring框架上（tim50）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring Ioc 程序的耦合 -&gt;6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +371,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -411,7 +415,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>43560</v>
+        <v>43561</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/201708044206张成文/学习日志.xlsx
+++ b/201708044206张成文/学习日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,10 @@
   </si>
   <si>
     <t>spring Ioc 程序的耦合 -&gt;6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂模式解耦 多例-&gt;单例(Map)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -421,6 +425,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43562</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044206张成文/学习日志.xlsx
+++ b/201708044206张成文/学习日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,10 @@
   </si>
   <si>
     <t>工厂模式解耦 多例-&gt;单例(Map)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库事务/JPA实体类中的注解/IDEA通过数据库表生成带注解的实体类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -433,6 +437,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43563</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044206张成文/学习日志.xlsx
+++ b/201708044206张成文/学习日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,10 @@
   </si>
   <si>
     <t>数据库事务/JPA实体类中的注解/IDEA通过数据库表生成带注解的实体类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -445,6 +449,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43564</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044206张成文/学习日志.xlsx
+++ b/201708044206张成文/学习日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>JPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDBC获取连接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -457,6 +461,19 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43566</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044206张成文/学习日志.xlsx
+++ b/201708044206张成文/学习日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +58,50 @@
   </si>
   <si>
     <t>JDBC获取连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JDBC_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF919191"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF919191"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Statement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF919191"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执行更新操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF919191"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/ResultSet</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -65,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +123,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF919191"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF919191"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,9 +158,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -384,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -474,6 +532,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43568</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044206张成文/学习日志.xlsx
+++ b/201708044206张成文/学习日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,47 +61,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>JDBC_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF919191"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF919191"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Statement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF919191"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>执行更新操作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF919191"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/ResultSet</t>
-    </r>
+    <t>JDBC_通过Statement执行更新操作/ResultSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreparedStatement/SQL注入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,15 +91,10 @@
     <font>
       <sz val="12"/>
       <color rgb="FF919191"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF919191"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -442,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -532,12 +491,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43568</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/201708044206张成文/学习日志.xlsx
+++ b/201708044206张成文/学习日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,41 @@
   </si>
   <si>
     <t>PreparedStatement/SQL注入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JDBC_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF919191"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利用反射及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF919191"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JDBC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF919191"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元数据编写通用的查询方法</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -73,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +131,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF919191"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF919191"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,10 +165,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -401,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -507,6 +556,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43571</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044206张成文/学习日志.xlsx
+++ b/201708044206张成文/学习日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,54 +61,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JDBC_通过Statement执行更新操作/ResultSet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PreparedStatement/SQL注入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>JDBC_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF919191"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>利用反射及</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF919191"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>JDBC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF919191"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元数据编写通用的查询方法</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>JDBC_DAO/BeanUtils工具类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDBC_通过Statement执行更新操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDBC_利用反射及JDBC元数据编写通用的查询方法</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,13 +108,6 @@
       <color rgb="FF919191"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF919191"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -450,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -545,7 +510,7 @@
         <v>43568</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -553,7 +518,7 @@
         <v>43570</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -561,7 +526,20 @@
         <v>43571</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43573</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/201708044206张成文/学习日志.xlsx
+++ b/201708044206张成文/学习日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,10 @@
   </si>
   <si>
     <t>JDBC_利用反射及JDBC元数据编写通用的查询方法</t>
+  </si>
+  <si>
+    <t>Maven_command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -415,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -542,6 +546,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43574</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044206张成文/学习日志.xlsx
+++ b/201708044206张成文/学习日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,10 @@
   </si>
   <si>
     <t>Maven_command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maven_dependency</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -554,6 +558,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43575</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044206张成文/学习日志.xlsx
+++ b/201708044206张成文/学习日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,10 @@
   </si>
   <si>
     <t>Maven_dependency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maven_依赖、传递、排除、统一管理\继承\聚合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -566,6 +570,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43576</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044206张成文/学习日志.xlsx
+++ b/201708044206张成文/学习日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,10 @@
   </si>
   <si>
     <t>maven_依赖、传递、排除、统一管理\继承\聚合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hibernate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -578,6 +582,14 @@
         <v>16</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044206张成文/学习日志.xlsx
+++ b/201708044206张成文/学习日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,10 @@
   </si>
   <si>
     <t>hibernate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -590,6 +594,14 @@
         <v>17</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43578</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044206张成文/学习日志.xlsx
+++ b/201708044206张成文/学习日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,9 @@
   <si>
     <t>Mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mybatis</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -602,6 +605,14 @@
         <v>18</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43579</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044206张成文/学习日志.xlsx
+++ b/201708044206张成文/学习日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,9 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JDBC_利用反射及JDBC元数据编写通用的查询方法</t>
-  </si>
-  <si>
     <t>Maven_command</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,13 +94,66 @@
   </si>
   <si>
     <t>Mybatis</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JDBC_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利用反射及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JDBC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元数据编写通用的查询方法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mybatis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,7 +170,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF919191"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -128,9 +178,16 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF919191"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -438,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -549,7 +606,7 @@
         <v>43571</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -570,7 +627,7 @@
         <v>43574</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -578,7 +635,7 @@
         <v>43575</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -586,7 +643,7 @@
         <v>43576</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -594,7 +651,7 @@
         <v>43577</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -602,7 +659,7 @@
         <v>43578</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -610,7 +667,31 @@
         <v>43579</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43581</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43583</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/201708044206张成文/学习日志.xlsx
+++ b/201708044206张成文/学习日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目/Spring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -694,6 +698,14 @@
         <v>22</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43591</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044206张成文/学习日志.xlsx
+++ b/201708044206张成文/学习日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>项目/Spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring属性配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -706,6 +710,14 @@
         <v>23</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43592</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044206张成文/学习日志.xlsx
+++ b/201708044206张成文/学习日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,22 @@
   </si>
   <si>
     <t>Spring属性配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dao-错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -718,6 +734,51 @@
         <v>24</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43594</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43595</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43596</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43597</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43598</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201708044206张成文/学习日志.xlsx
+++ b/201708044206张成文/学习日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,10 @@
   </si>
   <si>
     <t>重建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -779,6 +783,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43599</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
